--- a/Employee_Reports35/Arnel Butiu Guevarra Q0158.xlsx
+++ b/Employee_Reports35/Arnel Butiu Guevarra Q0158.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1958,11 +1958,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2007,11 +2007,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2093,11 +2093,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">

--- a/Employee_Reports35/Arnel Butiu Guevarra Q0158.xlsx
+++ b/Employee_Reports35/Arnel Butiu Guevarra Q0158.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1958,11 +1958,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2007,11 +2007,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2056,11 +2056,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2093,11 +2093,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
